--- a/sample.xlsx
+++ b/sample.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44026.92228509344</v>
+        <v>44027.43523434831</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
